--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2911,6 +2911,67 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>96</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J41" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>105</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,11 +3013,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2965,11 +3026,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2978,37 +3039,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45313</v>
+        <v>45317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3017,24 +3078,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45319</v>
+        <v>45321</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3043,11 +3104,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3056,11 +3117,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3069,11 +3130,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3082,11 +3143,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3095,24 +3156,24 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3121,11 +3182,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3134,11 +3195,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3147,11 +3208,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3160,24 +3221,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3186,24 +3247,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3212,11 +3273,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3225,11 +3286,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3238,24 +3299,24 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3264,11 +3325,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3277,11 +3338,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3290,20 +3351,20 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3311,29 +3372,29 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3342,37 +3403,37 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3381,11 +3442,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3394,11 +3455,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3407,24 +3468,24 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3433,24 +3494,24 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3459,24 +3520,24 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3485,7 +3546,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3493,19 +3554,6 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2972,6 +2972,250 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>121</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J42" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>97</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>110</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="J43" t="n">
+        <v>113</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>116</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>126</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="N44" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16</v>
+      </c>
+      <c r="H45" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="J45" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>108</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="N45" t="n">
+        <v>13</v>
+      </c>
+      <c r="O45" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2986,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,11 +3257,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3026,24 +3270,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45309</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45311</v>
+        <v>45321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3052,37 +3296,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45324</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45317</v>
+        <v>45326</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45319</v>
+        <v>45327</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3091,11 +3335,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45321</v>
+        <v>45329</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3104,7 +3348,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45324</v>
+        <v>45331</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3112,55 +3356,55 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45327</v>
+        <v>45334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45331</v>
+        <v>45344</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,37 +3413,37 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45345</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45348</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3208,11 +3452,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45352</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3221,102 +3465,102 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45345</v>
+        <v>45354</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45348</v>
+        <v>45356</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45350</v>
+        <v>45358</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45360</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45354</v>
+        <v>45362</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45356</v>
+        <v>45364</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45358</v>
+        <v>45366</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45360</v>
+        <v>45368</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3325,63 +3569,63 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45362</v>
+        <v>45371</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45366</v>
+        <v>45374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45368</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45371</v>
+        <v>45378</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3390,11 +3634,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45373</v>
+        <v>45382</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3403,50 +3647,50 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45384</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45385</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45387</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3455,11 +3699,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45384</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3468,11 +3712,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45385</v>
+        <v>45392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3481,11 +3725,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3494,66 +3738,14 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,6 +3219,128 @@
         <v>1</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>107</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J46" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>127</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="J47" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>126</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,496 +3381,470 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45321</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45319</v>
+      <c r="A3" s="3" t="n">
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>ATL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>BRK</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45391</v>
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45392</v>
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="C47" t="n">
@@ -3342,6 +3342,67 @@
       </c>
       <c r="S47" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>118</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="J48" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>107</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N48" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,11 +3443,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3395,11 +3456,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,11 +3469,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3421,11 +3482,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3434,24 +3495,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3460,11 +3521,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3473,11 +3534,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3486,11 +3547,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3499,24 +3560,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3525,24 +3586,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3551,11 +3612,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3564,11 +3625,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3577,24 +3638,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3603,11 +3664,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3616,11 +3677,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3629,20 +3690,20 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3650,29 +3711,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,37 +3742,37 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3720,11 +3781,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3733,11 +3794,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,24 +3807,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3772,24 +3833,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,24 +3859,24 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3824,7 +3885,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3832,19 +3893,6 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45321</v>
       </c>
       <c r="C48" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,67 @@
       </c>
       <c r="S48" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>106</v>
+      </c>
+      <c r="E49" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>135</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,11 +3504,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3456,11 +3517,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3469,11 +3530,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3482,24 +3543,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,11 +3569,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3521,11 +3582,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3534,11 +3595,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,24 +3608,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3573,24 +3634,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3599,11 +3660,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3612,11 +3673,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3625,24 +3686,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,11 +3712,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3664,11 +3725,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3677,20 +3738,20 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3698,29 +3759,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,37 +3790,37 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,11 +3829,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3781,11 +3842,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,24 +3855,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,24 +3881,24 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3846,24 +3907,24 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3872,7 +3933,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3880,19 +3941,6 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C49" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,6 +3463,128 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>127</v>
+      </c>
+      <c r="E50" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>120</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>135</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J51" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>138</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3477,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,11 +3626,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3517,37 +3639,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3556,11 +3678,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3569,11 +3691,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3582,63 +3704,63 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45350</v>
+        <v>45354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,11 +3769,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3660,37 +3782,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45354</v>
+        <v>45358</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,11 +3821,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45360</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3712,24 +3834,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3738,11 +3860,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3751,37 +3873,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45368</v>
+        <v>45373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45371</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3790,24 +3912,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,11 +3938,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3829,118 +3951,92 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C50" t="n">
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45327</v>
       </c>
       <c r="C51" t="n">
@@ -3586,6 +3586,67 @@
       </c>
       <c r="S51" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>123</v>
+      </c>
+      <c r="E52" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J52" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>117</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,24 +3687,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,11 +3713,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3665,11 +3726,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3678,11 +3739,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,24 +3752,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,24 +3778,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,11 +3804,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3756,11 +3817,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3769,24 +3830,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,11 +3856,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3808,11 +3869,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3821,20 +3882,20 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3842,29 +3903,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,37 +3934,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,11 +3973,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3925,11 +3986,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,24 +3999,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,24 +4025,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,24 +4051,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,7 +4077,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4024,19 +4085,6 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45329</v>
       </c>
       <c r="C52" t="n">
@@ -3646,6 +3646,67 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>107</v>
+      </c>
+      <c r="E53" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="J53" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>104</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3748,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,11 +3761,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3713,11 +3774,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3726,11 +3787,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3739,24 +3800,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,24 +3826,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3791,11 +3852,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3804,11 +3865,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3817,24 +3878,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,11 +3904,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3856,11 +3917,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3869,20 +3930,20 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3890,29 +3951,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,37 +3982,37 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,11 +4021,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3973,11 +4034,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,24 +4047,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,24 +4073,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,24 +4099,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4064,7 +4125,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4072,19 +4133,6 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="C53" t="n">
@@ -3708,6 +3708,67 @@
       </c>
       <c r="S53" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>95</v>
+      </c>
+      <c r="E54" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J54" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>119</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O54" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3761,11 +3822,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3774,11 +3835,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3787,24 +3848,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3813,24 +3874,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3839,11 +3900,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3852,11 +3913,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3865,24 +3926,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3891,11 +3952,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3904,11 +3965,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3917,20 +3978,20 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3938,29 +3999,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3969,37 +4030,37 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,11 +4069,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4021,11 +4082,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,24 +4095,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4060,24 +4121,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,24 +4147,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4112,7 +4173,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4120,19 +4181,6 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>1</v>
       </c>
       <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>99</v>
+      </c>
+      <c r="E55" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="G55" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J55" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>122</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,11 +3870,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3822,11 +3883,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,24 +3896,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,24 +3922,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,11 +3948,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3900,11 +3961,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3913,24 +3974,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,11 +4000,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3952,11 +4013,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3965,20 +4026,20 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3986,29 +4047,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,37 +4078,37 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,11 +4117,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4069,11 +4130,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,24 +4143,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,24 +4169,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,24 +4195,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,7 +4221,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4168,19 +4229,6 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>125</v>
+      </c>
+      <c r="E56" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J56" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>127</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>18</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,24 +3944,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,24 +3970,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,11 +3996,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3948,11 +4009,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3961,24 +4022,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,11 +4048,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4000,11 +4061,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4013,20 +4074,20 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4034,29 +4095,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,37 +4126,37 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,11 +4165,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4117,11 +4178,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,24 +4191,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,24 +4217,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,24 +4243,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,7 +4269,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4216,19 +4277,6 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,6 +3891,67 @@
       </c>
       <c r="S56" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>121</v>
+      </c>
+      <c r="E57" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="J57" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>93</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="N57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,24 +3992,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,24 +4018,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,11 +4044,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3996,11 +4057,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4009,24 +4070,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,11 +4096,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4048,11 +4109,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4061,20 +4122,20 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4082,29 +4143,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,37 +4174,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,11 +4213,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4165,11 +4226,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,24 +4239,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,24 +4265,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,24 +4291,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,7 +4317,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4264,19 +4325,6 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">
@@ -3951,6 +3951,67 @@
         <v>1</v>
       </c>
       <c r="S57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>123</v>
+      </c>
+      <c r="E58" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="J58" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>121</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,24 +4066,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,11 +4092,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4044,11 +4105,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4057,24 +4118,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,11 +4144,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4096,11 +4157,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4109,20 +4170,20 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4130,29 +4191,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,37 +4222,37 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,11 +4261,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4213,11 +4274,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,24 +4287,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,24 +4313,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,24 +4339,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,7 +4365,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4312,19 +4373,6 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,6 +4012,67 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>130</v>
+      </c>
+      <c r="E59" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J59" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>122</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,24 +4114,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,11 +4140,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4092,11 +4153,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4105,24 +4166,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,11 +4192,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4144,11 +4205,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4157,20 +4218,20 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4178,29 +4239,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,37 +4270,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,11 +4309,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4261,11 +4322,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,24 +4335,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,24 +4361,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,24 +4387,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,7 +4413,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4360,19 +4421,6 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45348</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,6 +4074,67 @@
       </c>
       <c r="S59" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9</v>
+      </c>
+      <c r="H60" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="J60" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>136</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O60" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,11 +4188,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4140,11 +4201,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4153,24 +4214,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,11 +4240,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4192,11 +4253,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4205,20 +4266,20 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4226,29 +4287,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,37 +4318,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,11 +4357,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4309,11 +4370,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,24 +4383,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,24 +4409,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,24 +4435,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,7 +4461,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4408,19 +4469,6 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4134,6 +4134,67 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>105</v>
+      </c>
+      <c r="E61" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J61" t="n">
+        <v>102</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>120</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="N61" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O61" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,11 +4236,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4188,11 +4249,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4201,24 +4262,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,11 +4288,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4240,11 +4301,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4253,20 +4314,20 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4274,29 +4335,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,37 +4366,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,11 +4405,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4357,11 +4418,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,24 +4431,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,24 +4457,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,24 +4483,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,7 +4509,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4456,19 +4517,6 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,6 +4196,67 @@
       </c>
       <c r="S61" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>111</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J62" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>106</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N62" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,11 +4297,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4249,24 +4310,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,11 +4336,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4288,11 +4349,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4301,20 +4362,20 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4322,29 +4383,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,37 +4414,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,11 +4453,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4405,11 +4466,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,24 +4479,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,24 +4505,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,24 +4531,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,7 +4557,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4504,19 +4565,6 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45354</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>98</v>
+      </c>
+      <c r="E63" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>139</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,24 +4358,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,11 +4384,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4336,11 +4397,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4349,20 +4410,20 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4370,29 +4431,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,37 +4462,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,11 +4501,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4453,11 +4514,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,24 +4527,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,24 +4553,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,24 +4579,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,7 +4605,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4552,19 +4613,6 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>1</v>
       </c>
       <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>113</v>
+      </c>
+      <c r="E64" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>120</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>27</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,11 +4432,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4384,11 +4445,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4397,20 +4458,20 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4418,29 +4479,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,37 +4510,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,11 +4549,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4501,11 +4562,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,24 +4575,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,24 +4601,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,24 +4627,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,7 +4653,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4600,19 +4661,6 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45358</v>
       </c>
       <c r="C64" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4378,6 +4378,67 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>118</v>
+      </c>
+      <c r="E65" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J65" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>128</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="N65" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="O65" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,11 +4480,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4432,11 +4493,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4445,20 +4506,20 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4466,29 +4527,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,37 +4558,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,11 +4597,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4549,11 +4610,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,24 +4623,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,24 +4649,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,24 +4675,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,7 +4701,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4648,19 +4709,6 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45360</v>
       </c>
       <c r="C65" t="n">
@@ -4439,6 +4439,67 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>119</v>
+      </c>
+      <c r="E66" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J66" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>125</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8</v>
+      </c>
+      <c r="O66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,11 +4541,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4493,20 +4554,20 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4514,29 +4575,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,37 +4606,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,11 +4645,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4597,11 +4658,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,24 +4671,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,24 +4697,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,24 +4723,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,7 +4749,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4696,19 +4757,6 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4500,6 +4500,67 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>104</v>
+      </c>
+      <c r="E67" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>113</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N67" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,20 +4602,20 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4562,29 +4623,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,37 +4654,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,11 +4693,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4645,11 +4706,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,24 +4719,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,24 +4745,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,24 +4771,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,7 +4797,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4744,19 +4805,6 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C67" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4561,6 +4561,67 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>103</v>
+      </c>
+      <c r="E68" t="n">
+        <v>95</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G68" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>113</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,7 +4663,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4610,29 +4671,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,37 +4702,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,11 +4741,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4754,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,24 +4767,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4732,24 +4793,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,24 +4819,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4784,7 +4845,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4792,19 +4853,6 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="C68" t="n">
@@ -4622,6 +4622,67 @@
         <v>1</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>96</v>
+      </c>
+      <c r="E69" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G69" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J69" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>111</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4724,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,37 +4750,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,11 +4789,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4741,11 +4802,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,24 +4815,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4780,24 +4841,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4806,24 +4867,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4832,7 +4893,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4840,19 +4901,6 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45368</v>
       </c>
       <c r="C69" t="n">
@@ -4683,6 +4683,67 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>89</v>
+      </c>
+      <c r="E70" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G70" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J70" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>123</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="N70" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4697,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,11 +4785,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4737,37 +4798,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,11 +4837,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4789,11 +4850,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4802,24 +4863,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4828,24 +4889,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4854,24 +4915,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4880,7 +4941,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4888,19 +4949,6 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45371</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4744,6 +4744,67 @@
         <v>1</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>103</v>
+      </c>
+      <c r="E71" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G71" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="J71" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>123</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O71" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,37 +4846,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,11 +4885,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4837,11 +4898,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,24 +4911,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,24 +4937,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,24 +4963,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,7 +4989,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4936,19 +4997,6 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45373</v>
       </c>
       <c r="C71" t="n">
@@ -4805,6 +4805,67 @@
         <v>1</v>
       </c>
       <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D72" t="n">
+        <v>109</v>
+      </c>
+      <c r="E72" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G72" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J72" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>112</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,24 +4907,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,11 +4933,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4885,11 +4946,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,24 +4959,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,24 +4985,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,24 +5011,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,7 +5037,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4984,19 +5045,6 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4866,6 +4866,67 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-11</v>
+      </c>
+      <c r="D73" t="n">
+        <v>88</v>
+      </c>
+      <c r="E73" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J73" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>96</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="N73" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="O73" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,11 +4981,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4933,11 +4994,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,24 +5007,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,24 +5033,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,24 +5059,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,7 +5085,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -5032,19 +5093,6 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C73" t="n">

--- a/data/CurrentSeason/TOR.xlsx
+++ b/data/CurrentSeason/TOR.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4927,6 +4927,67 @@
         <v>1</v>
       </c>
       <c r="S73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D74" t="n">
+        <v>101</v>
+      </c>
+      <c r="E74" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>145</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="N74" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O74" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4968,11 +5029,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4981,11 +5042,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4994,24 +5055,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5020,24 +5081,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5046,24 +5107,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5072,7 +5133,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5080,19 +5141,6 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
